--- a/demo/Shoulder_SCHR/Clavicula_scapula_humerus/Muscles_tab.xlsx
+++ b/demo/Shoulder_SCHR/Clavicula_scapula_humerus/Muscles_tab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufaond\Documents\Matlab\OptimTraj\demo\Shoulder_SCHR\Clavicula_scapula_humerus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufi\Documents\MATLAB\OptimTraj\demo\Shoulder_SCHR\Clavicula_scapula_humerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CEBD4F-9498-43EE-B291-08A8C98D9383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2C5CB9-584F-4AE5-91F4-36408069769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB527CEB-DB72-4887-9BE2-7C54A3871F43}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB527CEB-DB72-4887-9BE2-7C54A3871F43}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Muscle</t>
   </si>
@@ -83,109 +83,151 @@
     <t>DELT</t>
   </si>
   <si>
-    <t>800.0</t>
-  </si>
-  <si>
     <t>0.13</t>
   </si>
   <si>
+    <t>Supraspinatus</t>
+  </si>
+  <si>
+    <t>TerMin</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>TRAP3</t>
+  </si>
+  <si>
+    <t>Rhomboideus</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>[-0.059 0.097 0.002]</t>
+  </si>
+  <si>
+    <t>[-0.039 -0.003 -0.01]</t>
+  </si>
+  <si>
+    <t>[-0.092 -0.015 0.003]</t>
+  </si>
+  <si>
+    <t>[-0.058 -0.007 -0.044]</t>
+  </si>
+  <si>
+    <t>[-0.116 -0.106 0.001]</t>
+  </si>
+  <si>
+    <t>[-0.079 -0.013 -0.079]</t>
+  </si>
+  <si>
+    <t>[-0.068 0.001 -0.096]</t>
+  </si>
+  <si>
+    <t>[-0.079 0.009 0.001]</t>
+  </si>
+  <si>
+    <t>[-0.09 -0.042 -0.104]</t>
+  </si>
+  <si>
+    <t>[-0.037 0.094 0.001]</t>
+  </si>
+  <si>
+    <t>TRAP4</t>
+  </si>
+  <si>
+    <t>[-0.031 0.025 0.098]</t>
+  </si>
+  <si>
+    <t>[-0.056 -0.001 -0.071]</t>
+  </si>
+  <si>
+    <t>[0.01 0.021 0.01]</t>
+  </si>
+  <si>
+    <t>[-0.055 -0.058 -0.03]</t>
+  </si>
+  <si>
+    <t>[-0.02 -0.014 0.007]</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>900.0</t>
+  </si>
+  <si>
+    <t>[-0.009 0.0 0.0]</t>
+  </si>
+  <si>
+    <t>[0.0 -0.058 0.008]</t>
+  </si>
+  <si>
+    <t>PECM1</t>
+  </si>
+  <si>
+    <t>[0 0.006 0.059]</t>
+  </si>
+  <si>
+    <t>[0.016 -0.04 0.005]</t>
+  </si>
+  <si>
+    <t>PECM2</t>
+  </si>
+  <si>
+    <t>[0.042 -0.043 0.081]</t>
+  </si>
+  <si>
+    <t>[0.016 -0.035 0.005]</t>
+  </si>
+  <si>
+    <t>PECM3</t>
+  </si>
+  <si>
+    <t>[0.043 -0.093 0.083]</t>
+  </si>
+  <si>
+    <t>[0.016 -0.03 0.005]</t>
+  </si>
+  <si>
+    <t>SRA3</t>
+  </si>
+  <si>
+    <t>[-0.011 -0.162 0.149]</t>
+  </si>
+  <si>
+    <t>[-0.097 -0.077 -0.098]</t>
+  </si>
+  <si>
     <t>0.12</t>
   </si>
   <si>
-    <t>Supraspinatus</t>
-  </si>
-  <si>
-    <t>TerMin</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>TRAP3</t>
-  </si>
-  <si>
-    <t>Rhomboideus</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>500.0</t>
-  </si>
-  <si>
-    <t>[-0.059 0.097 0.002]</t>
-  </si>
-  <si>
-    <t>[-0.077 0.031 0.004]</t>
-  </si>
-  <si>
-    <t>[-0.039 -0.003 -0.01]</t>
-  </si>
-  <si>
-    <t>[-0.092 -0.015 0.003]</t>
-  </si>
-  <si>
-    <t>[-0.058 -0.007 -0.044]</t>
-  </si>
-  <si>
-    <t>[-0.116 -0.106 0.001]</t>
-  </si>
-  <si>
-    <t>[-0.079 -0.013 -0.079]</t>
-  </si>
-  <si>
-    <t>[-0.068 0.001 -0.096]</t>
-  </si>
-  <si>
-    <t>[-0.079 0.009 0.001]</t>
-  </si>
-  <si>
-    <t>[-0.09 -0.042 -0.104]</t>
-  </si>
-  <si>
-    <t>[-0.037 0.094 0.001]</t>
-  </si>
-  <si>
-    <t>TRAP4</t>
-  </si>
-  <si>
-    <t>[-0.031 0.025 0.098]</t>
-  </si>
-  <si>
-    <t>[-0.056 -0.001 -0.071]</t>
-  </si>
-  <si>
-    <t>[0.01 0.021 0.01]</t>
-  </si>
-  <si>
-    <t>[-0.055 -0.058 -0.03]</t>
-  </si>
-  <si>
-    <t>[-0.02 -0.014 0.007]</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>900.0</t>
-  </si>
-  <si>
-    <t>[-0.009 0.0 0.0]</t>
-  </si>
-  <si>
-    <t>[0.0 -0.058 0.008]</t>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>1300.0</t>
   </si>
   <si>
     <t>0.135</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>[-0.077 0.071 0.004]</t>
   </si>
 </sst>
 </file>
@@ -229,10 +271,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -547,24 +592,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43E0134-3284-40C3-8FFE-7CCE759BBCC1}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.7265625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,263 +635,360 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/demo/Shoulder_SCHR/Clavicula_scapula_humerus/Muscles_tab.xlsx
+++ b/demo/Shoulder_SCHR/Clavicula_scapula_humerus/Muscles_tab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufi\Documents\MATLAB\OptimTraj\demo\Shoulder_SCHR\Clavicula_scapula_humerus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoufaond\Documents\Matlab\OptimTraj\demo\Shoulder_SCHR\Clavicula_scapula_humerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2C5CB9-584F-4AE5-91F4-36408069769B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7B53D8-24C8-4840-A1C0-596C37D53745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AB527CEB-DB72-4887-9BE2-7C54A3871F43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AB527CEB-DB72-4887-9BE2-7C54A3871F43}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Muscle</t>
   </si>
@@ -104,9 +104,6 @@
     <t>300.0</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>500.0</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>SRA3</t>
   </si>
   <si>
-    <t>[-0.011 -0.162 0.149]</t>
-  </si>
-  <si>
     <t>[-0.097 -0.077 -0.098]</t>
   </si>
   <si>
@@ -218,16 +212,49 @@
     <t>450.0</t>
   </si>
   <si>
-    <t>1300.0</t>
-  </si>
-  <si>
     <t>0.135</t>
   </si>
   <si>
-    <t>0.145</t>
-  </si>
-  <si>
     <t>[-0.077 0.071 0.004]</t>
+  </si>
+  <si>
+    <t>SRA1</t>
+  </si>
+  <si>
+    <t>[-0.088 -0.047 -0.099]</t>
+  </si>
+  <si>
+    <t>SRA2</t>
+  </si>
+  <si>
+    <t>[-0.093 -0.062 -0.099]</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>[-0.041 -0.056 0.12]</t>
+  </si>
+  <si>
+    <t>[-0.041 -0.102 0.138]</t>
+  </si>
+  <si>
+    <t>[-0.041 -0.162 0.149]</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
 </sst>
 </file>
@@ -271,13 +298,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -595,21 +619,21 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="29.7265625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,33 +659,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -675,19 +699,19 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -695,77 +719,77 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -773,51 +797,51 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -825,25 +849,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -851,27 +875,27 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -883,21 +907,21 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>48</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
@@ -909,24 +933,24 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -935,60 +959,95 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="H16">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
